--- a/src/examples/Phase2-2019.xlsx
+++ b/src/examples/Phase2-2019.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1710,7 @@
         <v>126</v>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>127</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>141</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>128</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>129</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>142</v>
       </c>
       <c r="C8">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>131</v>
       </c>
       <c r="C10">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>132</v>
       </c>
       <c r="C11">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>133</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>134</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>137</v>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
